--- a/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patra\Documents\GitHub\VVSS-Team-team\03_PizzaShop\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ubb_anul_III_sem_2\VVSS\LABORATOR\Lab01\VVSS-Team-team\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5404B0-3EB5-4499-A618-D61344689562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6901E3E-028B-4EEB-B8CB-1DC04C753F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="0" windowWidth="17205" windowHeight="10920" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>The layering is logically consistent.</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>Clasele din diagrama sunt definite destul de clar si se respecta arhitectura stratificata cu service, repository, model  etc.</t>
+  </si>
+  <si>
+    <t>In aceasta diagrama de clase nu este prezentata nici o conditie care sa tina cont de cerintele legate de faptul ca restaurantul este inchis sau deschis</t>
+  </si>
+  <si>
+    <t>La nivelul clasei "paymantAlert" exista functia "showPaymentAlert", dar afisarea nu ar trebui sa se faca la acest nivel, ci la nivelul UI/GUI-ului.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +464,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,6 +511,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,46 +537,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,312 +886,312 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="30"/>
-    <col min="2" max="2" width="12.28515625" style="30" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="92.85546875" style="30" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="30"/>
-    <col min="9" max="9" width="21" style="30" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="8.85546875" style="19"/>
+    <col min="2" max="2" width="12.28515625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="92.85546875" style="19" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="19"/>
+    <col min="9" max="9" width="21" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="39" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="41" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="H4" s="39" t="s">
+      <c r="E4" s="36"/>
+      <c r="H4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="41" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="H5" s="39" t="s">
+      <c r="E5" s="40"/>
+      <c r="H5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="41" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="29"/>
+      <c r="C6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="41" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="9" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="31">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
         <v>1</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="31">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="31">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="21">
         <v>1</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="31">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="21">
         <v>1</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-    </row>
-    <row r="18" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="48"/>
-    </row>
-    <row r="21" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="31">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="48"/>
-    </row>
-    <row r="23" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="31">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="48"/>
-    </row>
-    <row r="25" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="49"/>
-    </row>
-    <row r="27" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="50" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="32">
+      <c r="D27" s="35"/>
+      <c r="E27" s="21">
         <v>1.5</v>
       </c>
     </row>
@@ -1201,8 +1216,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,19 +1236,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1253,10 +1268,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="43"/>
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
@@ -1267,10 +1282,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="46"/>
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
@@ -1282,15 +1297,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1306,13 +1321,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -1329,7 +1350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1340,16 +1361,24 @@
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1556,19 +1585,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1588,10 +1617,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="47"/>
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
@@ -1602,10 +1631,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="49"/>
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
@@ -1617,15 +1646,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1882,19 +1911,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1914,8 +1943,8 @@
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
@@ -1926,8 +1955,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1968,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,11 +2202,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="16"/>
     </row>
   </sheetData>

--- a/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ubb_anul_III_sem_2\VVSS\LABORATOR\Lab01\VVSS-Team-team\03_PizzaShop\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patra\Documents\GitHub\VVSS-Team-team\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6901E3E-028B-4EEB-B8CB-1DC04C753F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BA0208-E554-4332-B83C-CA191BCBA68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="0" windowWidth="17205" windowHeight="10920" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Sunt incomplete, dar captureaza corect responsabilitatiile clasei</t>
   </si>
   <si>
-    <t>Nu sunt reprezentate corect. Exemple: Clasa OrdersGUIController are relatie de asociere cu clasa PaymentAlert, dar nu exista nici un obiect de tipul PaymentAlert in clasa. Ex2: MainGUIController are relatie de agregare 1 la 1 cu clasa OrdersGUI, dar fiecare masa are cate un OrdersGUI al ei.</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
@@ -248,20 +245,33 @@
     <t>In aceasta diagrama de clase nu este prezentata nici o conditie care sa tina cont de cerintele legate de faptul ca restaurantul este inchis sau deschis</t>
   </si>
   <si>
-    <t>La nivelul clasei "paymantAlert" exista functia "showPaymentAlert", dar afisarea nu ar trebui sa se faca la acest nivel, ci la nivelul UI/GUI-ului.</t>
+    <t>La nivelul clasei "PaymentAlert" exista functia "showPaymentAlert", dar afisarea nu ar trebui sa se faca la acest nivel, ci la nivelul UI/GUI-ului.</t>
+  </si>
+  <si>
+    <t>Naste Denis Marian</t>
+  </si>
+  <si>
+    <t>Nu sunt reprezentate corect. Exemple: Clasa OrdersGUI are relatie de asociere cu clasa PizzaService, dar nu este folosit.Clasa OrdersGUIController are 2 agregari si o asociere cu aceeasi clasa MenuDataModel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,103 +450,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,8 +1227,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,8 +1272,12 @@
       <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="15">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
@@ -1275,8 +1290,12 @@
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
@@ -1289,8 +1308,12 @@
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -1326,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1341,13 +1364,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1356,13 +1379,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1371,16 +1394,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1440,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1452,7 +1475,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1461,13 +1484,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1541,7 +1564,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1565,7 +1590,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,8 +1635,12 @@
       <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="15">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
@@ -1624,8 +1653,12 @@
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
@@ -1638,8 +1671,12 @@
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>

--- a/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patra\Documents\GitHub\VVSS-Team-team\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BA0208-E554-4332-B83C-CA191BCBA68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82386F-6C88-43A1-89CF-C896BF43EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -252,6 +252,120 @@
   </si>
   <si>
     <t>Nu sunt reprezentate corect. Exemple: Clasa OrdersGUI are relatie de asociere cu clasa PizzaService, dar nu este folosit.Clasa OrdersGUIController are 2 agregari si o asociere cu aceeasi clasa MenuDataModel</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>OrdersGUIContr, 46</t>
+  </si>
+  <si>
+    <t>Button is named newOrder, however it closes the page, so we renamed it into exitTable</t>
+  </si>
+  <si>
+    <t>OrdersGUIController, 55</t>
+  </si>
+  <si>
+    <t>static members should be accessed statically</t>
+  </si>
+  <si>
+    <t>this.totalAmount</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>OrdersGUIController, 125</t>
+  </si>
+  <si>
+    <t>this.getTotalAmount()</t>
+  </si>
+  <si>
+    <t>getTotalAmount()</t>
+  </si>
+  <si>
+    <t>KitchenGUI, 34</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t>commented code</t>
+  </si>
+  <si>
+    <t>deleted line</t>
+  </si>
+  <si>
+    <t>OrdersGUI, 40</t>
+  </si>
+  <si>
+    <t>Anonymous inner classes containing only one method should become lambdas</t>
+  </si>
+  <si>
+    <t>stage.setOnCloseRequest(new EventHandler&lt;WindowEvent&gt;() {</t>
+  </si>
+  <si>
+    <t>stage.setOnCloseRequest(event -&gt; {</t>
+  </si>
+  <si>
+    <t>OrdersGUI, 3, 8</t>
+  </si>
+  <si>
+    <t>Unnecessary imports should be removed</t>
+  </si>
+  <si>
+    <t>EventHandler, WindowEvent</t>
+  </si>
+  <si>
+    <t>removed imports</t>
+  </si>
+  <si>
+    <t>MenuRepository, 14</t>
+  </si>
+  <si>
+    <t>Methods should not be empty</t>
+  </si>
+  <si>
+    <t>public MenuRepository(){}</t>
+  </si>
+  <si>
+    <t>We left it the same because it’s a constructor</t>
+  </si>
+  <si>
+    <t>PaymentRepository, 34,36</t>
+  </si>
+  <si>
+    <t>Catches should be combined</t>
+  </si>
+  <si>
+    <t>two separate catch instructions with the same body</t>
+  </si>
+  <si>
+    <t>collapsed</t>
+  </si>
+  <si>
+    <t>PaymentRepository, 3,4</t>
+  </si>
+  <si>
+    <t>ObservableList, MenuDataModel not used</t>
+  </si>
+  <si>
+    <t>PizzaService, 33</t>
+  </si>
+  <si>
+    <t>Collection.isEmpty() should be used to test for emptiness</t>
+  </si>
+  <si>
+    <t>l.size()==0</t>
+  </si>
+  <si>
+    <t>l.isEmpty()</t>
+  </si>
+  <si>
+    <t>MenuRepository, 30</t>
   </si>
 </sst>
 </file>
@@ -499,6 +613,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -547,7 +662,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,19 +1026,19 @@
       <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="H2" s="20"/>
       <c r="I2" s="25" t="s">
         <v>30</v>
@@ -948,10 +1062,10 @@
       <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="26" t="s">
         <v>21</v>
       </c>
@@ -966,10 +1080,10 @@
       <c r="C5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="H5" s="26" t="s">
         <v>22</v>
       </c>
@@ -985,15 +1099,15 @@
       <c r="C6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
@@ -1227,8 +1341,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,19 +1361,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1272,7 +1386,7 @@
       <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="36" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="15">
@@ -1283,14 +1397,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J4" s="3">
@@ -1301,14 +1415,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1320,15 +1434,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1590,7 +1704,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,8 +1712,8 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
@@ -1610,19 +1724,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1635,7 +1749,7 @@
       <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="36" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="15">
@@ -1646,14 +1760,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J4" s="3">
@@ -1664,14 +1778,14 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1683,15 +1797,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1796,14 +1910,20 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
@@ -1926,18 +2046,18 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41" style="6" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
@@ -1948,19 +2068,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1973,40 +2093,54 @@
       <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="15">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="48"/>
       <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2030,100 +2164,180 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -2239,12 +2453,14 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="16"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="16">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/03_PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patra\Documents\GitHub\VVSS-Team-team\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82386F-6C88-43A1-89CF-C896BF43EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A35B590-CA57-44D3-BAAE-9D841E91FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -366,6 +366,81 @@
   </si>
   <si>
     <t>MenuRepository, 30</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>OrdersGUIContr, 103</t>
+  </si>
+  <si>
+    <t>If the order is not cooked yet, we shouldn’t be able to serve it. Appropiate message is now shown. In the kitchen, there are appropiate messages shown when no order was selected instead of nullPointerException</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Although there are some console prints, the menu and payments are retrieved and saved correctly.</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>The loops are correctly implemented, and do what they are inteded to do.</t>
+  </si>
+  <si>
+    <t>We have not found any issues regarding variable types, except that we would have created a class "Order" instead of using it as a Object.</t>
+  </si>
+  <si>
+    <t>On all the orders we tried to process, the correct amount to be paid was shown and saved in the file.However, the files are in target/classes/data instead of resources/data</t>
+  </si>
+  <si>
+    <t>Menu prices are gathered correctly, order prices are calculated correctly and the expected amount is paid. However, the retrieved list is saved in memory, but never used.</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>You should not be able to serve an order if it's not cooked yet, and you should not be able to pay if there is nothing to pay for.</t>
+  </si>
+  <si>
+    <t>KitchenGUIController, 29</t>
+  </si>
+  <si>
+    <t>There is a while true, that only stops when the process is closed, and it gives errors sometimes</t>
+  </si>
+  <si>
+    <t>all good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??? We think of this as the invocation of a method that breaks the app. </t>
+  </si>
+  <si>
+    <t>??? Not sure what this applies to</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1081,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,8 +1416,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1779,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,94 +1896,154 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -1925,14 +2060,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
@@ -2023,7 +2164,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2046,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
